--- a/pkg/pchip/pchip.xlsx
+++ b/pkg/pchip/pchip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="coefs" sheetId="1" r:id="rId1"/>
@@ -1473,11 +1473,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2902,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:CX1"/>
     </sheetView>
   </sheetViews>

--- a/pkg/pchip/pchip.xlsx
+++ b/pkg/pchip/pchip.xlsx
@@ -12414,15 +12414,12 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -14152,7 +14149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>

--- a/pkg/pchip/pchip.xlsx
+++ b/pkg/pchip/pchip.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -290,8 +290,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,13 +322,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -776,51 +776,6 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-0.95257652515033953</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.9721628316176568E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11006017260018919</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2169978547505948E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.9666122185211411</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.4190122315457687</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-42.88622348418064</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.4734965615388882</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.1604059710983666</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-5.3221598282546134E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.12141641499802332</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.3486919046182919</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.8858801715725413</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>195.84101609138054</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-4.8412012441432157</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.58004060861935114</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4.9458654483284466E-2</c:v>
@@ -1664,51 +1619,6 @@
                 <c:pt idx="8">
                   <c:v>-0.83703522909475558</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.1820627891780764E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1040945210043958E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.1066724412464658E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.38420004781685019</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.6287797035635911</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23.886263722673629</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.1869869272616116</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.15838476088340636</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.9814104216767093E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.6586945464218064E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.55158922186881931</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.9271379619173337</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>64.660935078952093</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-4.5976656885968472</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.53491990008345236</c:v>
-                </c:pt>
                 <c:pt idx="24">
                   <c:v>3.991467243134994E-2</c:v>
                 </c:pt>
@@ -2551,51 +2461,6 @@
                 <c:pt idx="8">
                   <c:v>-2.4326987808884675</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.2533544909463079</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.272143462609522</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.2798755843090444</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.2507073883601865</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-2.0115890125462661</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.662593514667341</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.2176725752165831</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.2635419276993574</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.267643931993252</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.2377591695935513</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.9092491945782395</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-3.0947638753768745</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.1202147614206064</c:v>
-                </c:pt>
                 <c:pt idx="24">
                   <c:v>-2.251345267572697</c:v>
                 </c:pt>
@@ -3438,51 +3303,6 @@
                 <c:pt idx="8">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
                 </c:pt>
@@ -3929,7 +3749,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4816,7 +4635,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5703,7 +5521,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6590,7 +6407,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12413,24 +12229,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col max="1" min="1" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>-2.8714280560717074E-5</v>
+        <v>-0.000028714280560717074</v>
       </c>
       <c r="C1">
-        <v>6.2721117558672658E-3</v>
+        <v>0.006272111755867266</v>
       </c>
       <c r="D1">
         <v>2.2631207254126786</v>
@@ -12439,83 +12255,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-2.9925708589007175E-2</v>
+        <v>-0.029925708589007175</v>
       </c>
       <c r="C2">
-        <v>1.9447140301766065E-2</v>
+        <v>0.019447140301766065</v>
       </c>
       <c r="D2">
-        <v>2.2686400770674799</v>
+        <v>2.26864007706748</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5.8971315736842583E-2</v>
+        <v>0.05897131573684258</v>
       </c>
       <c r="C3">
-        <v>-3.2904246387262234E-2</v>
+        <v>-0.032904246387262234</v>
       </c>
       <c r="D3">
-        <v>2.2683624016025128</v>
+        <v>2.268362401602513</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-9.9041138997482764E-2</v>
+        <v>-0.09904113899748276</v>
       </c>
       <c r="C4">
-        <v>6.2795214520701248E-2</v>
+        <v>0.06279521452070125</v>
       </c>
       <c r="D4">
-        <v>2.2737867239453529</v>
+        <v>2.273786723945353</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3.7294867449585184E-2</v>
+        <v>0.037294867449585184</v>
       </c>
       <c r="C5">
-        <v>-4.0122199554597338E-2</v>
+        <v>-0.04012219955459734</v>
       </c>
       <c r="D5">
-        <v>2.2717728301219609</v>
+        <v>2.271772830121961</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.59996846117069957</v>
+        <v>-0.5999684611706996</v>
       </c>
       <c r="C6">
-        <v>0.25895535917576251</v>
+        <v>0.2589553591757625</v>
       </c>
       <c r="D6">
         <v>2.2581671202582063</v>
@@ -12524,29 +12340,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-7.7979092426615173</v>
+        <v>-7.797909242661517</v>
       </c>
       <c r="C7">
         <v>3.6303085793178687</v>
       </c>
       <c r="D7">
-        <v>2.1338808849569828</v>
+        <v>2.133880884956983</v>
       </c>
       <c r="E7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>19.762572890072221</v>
+        <v>19.76257289007222</v>
       </c>
       <c r="C8">
         <v>14.448514151355933</v>
@@ -12558,15 +12374,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-0.95257652515033953</v>
+        <v>-0.9525765251503395</v>
       </c>
       <c r="C9">
-        <v>-0.83703522909475558</v>
+        <v>-0.8370352290947556</v>
       </c>
       <c r="D9">
         <v>-2.4326987808884675</v>
@@ -12575,24 +12391,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>-4.9721628316176568E-2</v>
+        <v>-0.04972162831617657</v>
       </c>
       <c r="C10">
-        <v>-1.1820627891780764E-2</v>
+        <v>-0.011820627891780764</v>
       </c>
       <c r="D10">
-        <v>-2.2533544909463079</v>
+        <v>-2.253354490946308</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -12600,7 +12416,7 @@
         <v>0.11006017260018919</v>
       </c>
       <c r="C11">
-        <v>8.1040945210043958E-2</v>
+        <v>0.08104094521004396</v>
       </c>
       <c r="D11">
         <v>-2.272143462609522</v>
@@ -12609,15 +12425,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>8.2169978547505948E-2</v>
+        <v>0.08216997854750595</v>
       </c>
       <c r="C12">
-        <v>2.1066724412464658E-2</v>
+        <v>0.021066724412464658</v>
       </c>
       <c r="D12">
         <v>-2.2798755843090444</v>
@@ -12626,7 +12442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -12634,7 +12450,7 @@
         <v>0.9666122185211411</v>
       </c>
       <c r="C13">
-        <v>0.38420004781685019</v>
+        <v>0.3842000478168502</v>
       </c>
       <c r="D13">
         <v>-2.2507073883601865</v>
@@ -12643,24 +12459,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5.4190122315457687</v>
+        <v>5.419012231545769</v>
       </c>
       <c r="C14">
-        <v>2.6287797035635911</v>
+        <v>2.628779703563591</v>
       </c>
       <c r="D14">
-        <v>-2.0115890125462661</v>
+        <v>-2.011589012546266</v>
       </c>
       <c r="E14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -12668,7 +12484,7 @@
         <v>-42.88622348418064</v>
       </c>
       <c r="C15">
-        <v>23.886263722673629</v>
+        <v>23.88626372267363</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -12677,12 +12493,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.4734965615388882</v>
+        <v>2.473496561538888</v>
       </c>
       <c r="C16">
         <v>-2.1869869272616116</v>
@@ -12694,7 +12510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -12705,21 +12521,21 @@
         <v>0.15838476088340636</v>
       </c>
       <c r="D17">
-        <v>2.2176725752165831</v>
+        <v>2.217672575216583</v>
       </c>
       <c r="E17">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-5.3221598282546134E-2</v>
+        <v>-0.053221598282546134</v>
       </c>
       <c r="C18">
-        <v>3.9814104216767093E-2</v>
+        <v>0.03981410421676709</v>
       </c>
       <c r="D18">
         <v>2.2635419276993574</v>
@@ -12728,7 +12544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -12736,7 +12552,7 @@
         <v>-0.12141641499802332</v>
       </c>
       <c r="C19">
-        <v>4.6586945464218064E-2</v>
+        <v>0.046586945464218064</v>
       </c>
       <c r="D19">
         <v>2.267643931993252</v>
@@ -12745,15 +12561,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-1.3486919046182919</v>
+        <v>-1.348691904618292</v>
       </c>
       <c r="C20">
-        <v>0.55158922186881931</v>
+        <v>0.5515892218688193</v>
       </c>
       <c r="D20">
         <v>2.2377591695935513</v>
@@ -12762,7 +12578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -12776,10 +12592,10 @@
         <v>1.9092491945782395</v>
       </c>
       <c r="E21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -12787,24 +12603,24 @@
         <v>195.84101609138054</v>
       </c>
       <c r="C22">
-        <v>64.660935078952093</v>
+        <v>64.6609350789521</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>-4.8412012441432157</v>
+        <v>-4.841201244143216</v>
       </c>
       <c r="C23">
-        <v>-4.5976656885968472</v>
+        <v>-4.597665688596847</v>
       </c>
       <c r="D23">
         <v>-3.0947638753768745</v>
@@ -12813,15 +12629,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.58004060861935114</v>
+        <v>0.5800406086193511</v>
       </c>
       <c r="C24">
-        <v>0.53491990008345236</v>
+        <v>0.5349199000834524</v>
       </c>
       <c r="D24">
         <v>-2.1202147614206064</v>
@@ -12830,15 +12646,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>4.9458654483284466E-2</v>
+        <v>0.049458654483284466</v>
       </c>
       <c r="C25">
-        <v>3.991467243134994E-2</v>
+        <v>0.03991467243134994</v>
       </c>
       <c r="D25">
         <v>-2.251345267572697</v>
@@ -12847,15 +12663,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>9.4350623378126997E-2</v>
+        <v>0.094350623378127</v>
       </c>
       <c r="C26">
-        <v>3.7966504442996374E-2</v>
+        <v>0.037966504442996374</v>
       </c>
       <c r="D26">
         <v>-2.2576111205170237</v>
@@ -12864,41 +12680,41 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.62365133498910286</v>
+        <v>0.6236513349891029</v>
       </c>
       <c r="C27">
-        <v>0.23714565863640699</v>
+        <v>0.237145658636407</v>
       </c>
       <c r="D27">
-        <v>-2.2356514972112471</v>
+        <v>-2.235651497211247</v>
       </c>
       <c r="E27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-5.7344698901281808</v>
+        <v>-5.734469890128181</v>
       </c>
       <c r="C28">
         <v>-3.2244456220998483</v>
       </c>
       <c r="D28">
-        <v>-2.0685948872212379</v>
+        <v>-2.068594887221238</v>
       </c>
       <c r="E28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -12906,7 +12722,7 @@
         <v>441.5132143298286</v>
       </c>
       <c r="C29">
-        <v>88.453265650119789</v>
+        <v>88.45326565011979</v>
       </c>
       <c r="D29">
         <v>-3.3326573665993795</v>
@@ -12915,7 +12731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -12923,7 +12739,7 @@
         <v>-3.394882351775264</v>
       </c>
       <c r="C30">
-        <v>4.6889197825888376</v>
+        <v>4.688919782588838</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -12932,7 +12748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -12949,15 +12765,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-3.2642586328636501E-2</v>
+        <v>-0.0326425863286365</v>
       </c>
       <c r="C32">
-        <v>4.1017026064098412E-2</v>
+        <v>0.04101702606409841</v>
       </c>
       <c r="D32">
         <v>2.2547565086294084</v>
@@ -12966,15 +12782,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2.4508484882332583E-3</v>
+        <v>0.0024508484882332583</v>
       </c>
       <c r="C33">
-        <v>1.1233491842577801E-2</v>
+        <v>0.011233491842577801</v>
       </c>
       <c r="D33">
         <v>2.2718875258638738</v>
@@ -12983,7 +12799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -13000,7 +12816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -13017,7 +12833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -13034,15 +12850,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>4.7476414330006511</v>
+        <v>4.747641433000651</v>
       </c>
       <c r="C37">
-        <v>5.8093295124832398</v>
+        <v>5.80932951248324</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -13051,7 +12867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -13068,32 +12884,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-1.9459812421709553E-2</v>
+        <v>-0.019459812421709553</v>
       </c>
       <c r="C39">
-        <v>-1.288269920320961E-2</v>
+        <v>-0.01288269920320961</v>
       </c>
       <c r="D39">
-        <v>-2.3068731243017271</v>
+        <v>-2.306873124301727</v>
       </c>
       <c r="E39">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-3.0249114617154453E-2</v>
+        <v>-0.030249114617154453</v>
       </c>
       <c r="C40">
-        <v>-9.0911867947117576E-3</v>
+        <v>-0.009091186794711758</v>
       </c>
       <c r="D40">
         <v>-2.3066833111624705</v>
@@ -13102,7 +12918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -13110,33 +12926,33 @@
         <v>0.26310648316264723</v>
       </c>
       <c r="C41">
-        <v>0.13054819658488151</v>
+        <v>0.1305481965848815</v>
       </c>
       <c r="D41">
-        <v>-2.3158363414749119</v>
+        <v>-2.315836341474912</v>
       </c>
       <c r="E41">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>-0.84274301106385785</v>
+        <v>-0.8427430110638578</v>
       </c>
       <c r="C42">
-        <v>-0.46634104734361359</v>
+        <v>-0.4663410473436136</v>
       </c>
       <c r="D42">
-        <v>-2.2819847795971029</v>
+        <v>-2.281984779597103</v>
       </c>
       <c r="E42">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -13144,7 +12960,7 @@
         <v>16.604797979132147</v>
       </c>
       <c r="C43">
-        <v>6.9692297237201242</v>
+        <v>6.969229723720124</v>
       </c>
       <c r="D43">
         <v>-2.3690434474642275</v>
@@ -13153,7 +12969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -13161,7 +12977,7 @@
         <v>-7.4148514337035225</v>
       </c>
       <c r="C44">
-        <v>7.7238581073259258</v>
+        <v>7.723858107325926</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -13170,7 +12986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -13178,24 +12994,24 @@
         <v>-1.134572895329752</v>
       </c>
       <c r="C45">
-        <v>0.92246332484472449</v>
+        <v>0.9224633248447245</v>
       </c>
       <c r="D45">
-        <v>2.1755122257462611</v>
+        <v>2.175512225746261</v>
       </c>
       <c r="E45">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>6.8158733879165406E-2</v>
+        <v>0.0681587338791654</v>
       </c>
       <c r="C46">
-        <v>-6.6333318006504924E-2</v>
+        <v>-0.06633331800650492</v>
       </c>
       <c r="D46">
         <v>2.3466383939583846</v>
@@ -13204,15 +13020,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47">
-        <v>3.8386893121470457E-2</v>
+        <v>0.03838689312147046</v>
       </c>
       <c r="C47">
-        <v>-2.432606836886159E-2</v>
+        <v>-0.02432606836886159</v>
       </c>
       <c r="D47">
         <v>2.327358595709986</v>
@@ -13221,7 +13037,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -13229,7 +13045,7 @@
         <v>-0.17821141920041075</v>
       </c>
       <c r="C48">
-        <v>8.5192379490521802E-2</v>
+        <v>0.0851923794905218</v>
       </c>
       <c r="D48">
         <v>2.3277461517164713</v>
@@ -13238,12 +13054,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49">
-        <v>-0.50239036727582076</v>
+        <v>-0.5023903672758208</v>
       </c>
       <c r="C49">
         <v>0.1560178010426061</v>
@@ -13255,12 +13071,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>-7.9040266586367727</v>
+        <v>-7.904026658636773</v>
       </c>
       <c r="C50">
         <v>3.6536271486348486</v>
@@ -13272,7 +13088,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -13289,15 +13105,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="B52">
-        <v>-9.0708794909609893E-3</v>
+        <v>-0.00907087949096099</v>
       </c>
       <c r="C52">
-        <v>-7.4412924730031305E-2</v>
+        <v>-0.0744129247300313</v>
       </c>
       <c r="D52">
         <v>-2.4205740851542044</v>
@@ -13306,7 +13122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -13323,15 +13139,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>-2.9586000205196368E-2</v>
+        <v>-0.029586000205196368</v>
       </c>
       <c r="C54">
-        <v>-2.8950056632779775E-2</v>
+        <v>-0.028950056632779775</v>
       </c>
       <c r="D54">
         <v>-2.3285677170224433</v>
@@ -13340,7 +13156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -13348,7 +13164,7 @@
         <v>0.21445520462766446</v>
       </c>
       <c r="C55">
-        <v>8.9038266561582285E-2</v>
+        <v>0.08903826656158229</v>
       </c>
       <c r="D55">
         <v>-2.3200957074415385</v>
@@ -13357,7 +13173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -13365,7 +13181,7 @@
         <v>1.1744277788655084</v>
       </c>
       <c r="C56">
-        <v>0.43466934772564247</v>
+        <v>0.4346693477256425</v>
       </c>
       <c r="D56">
         <v>-2.2772238183644533</v>
@@ -13374,12 +13190,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>57</v>
       </c>
       <c r="B57">
-        <v>4.4839684282344914</v>
+        <v>4.483968428234491</v>
       </c>
       <c r="C57">
         <v>2.1910643387984834</v>
@@ -13391,12 +13207,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" s="1">
         <v>58</v>
       </c>
       <c r="B58">
-        <v>-50.574417272402307</v>
+        <v>-50.57441727240231</v>
       </c>
       <c r="C58">
         <v>26.678173468908234</v>
@@ -13408,7 +13224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -13416,41 +13232,41 @@
         <v>2.6520600393532496</v>
       </c>
       <c r="C59">
-        <v>-2.3029250956790399</v>
+        <v>-2.30292509567904</v>
       </c>
       <c r="D59">
-        <v>2.8383452259781898</v>
+        <v>2.83834522597819</v>
       </c>
       <c r="E59">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" s="1">
         <v>60</v>
       </c>
       <c r="B60">
-        <v>3.9424159525865435E-2</v>
+        <v>0.039424159525865435</v>
       </c>
       <c r="C60">
-        <v>-5.1117569115640325E-2</v>
+        <v>-0.051117569115640325</v>
       </c>
       <c r="D60">
-        <v>2.3236511558253929</v>
+        <v>2.323651155825393</v>
       </c>
       <c r="E60">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" s="1">
         <v>61</v>
       </c>
       <c r="B61">
-        <v>2.1436469955748595E-4</v>
+        <v>0.00021436469955748595</v>
       </c>
       <c r="C61">
-        <v>-1.6882117011499297E-2</v>
+        <v>-0.016882117011499297</v>
       </c>
       <c r="D61">
         <v>2.3015581509131016</v>
@@ -13459,7 +13275,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -13467,7 +13283,7 @@
         <v>-0.1647240374262568</v>
       </c>
       <c r="C62">
-        <v>5.573687787603715E-2</v>
+        <v>0.05573687787603715</v>
       </c>
       <c r="D62">
         <v>2.286963374375901</v>
@@ -13476,7 +13292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -13493,7 +13309,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -13501,7 +13317,7 @@
         <v>6.392505415620807</v>
       </c>
       <c r="C64">
-        <v>-4.0345789293042289</v>
+        <v>-4.034578929304229</v>
       </c>
       <c r="D64">
         <v>1.9554422305376111</v>
@@ -13510,7 +13326,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -13518,24 +13334,24 @@
         <v>-2095.6132901838496</v>
       </c>
       <c r="C65">
-        <v>271.42741250742063</v>
+        <v>271.4274125074206</v>
       </c>
       <c r="D65">
-        <v>3.6343384291875882</v>
+        <v>3.634338429187588</v>
       </c>
       <c r="E65">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>66</v>
       </c>
       <c r="B66">
-        <v>4.2728128276690702</v>
+        <v>4.27281282766907</v>
       </c>
       <c r="C66">
-        <v>5.4198872340510764</v>
+        <v>5.419887234051076</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -13544,7 +13360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -13561,15 +13377,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>68</v>
       </c>
       <c r="B68">
-        <v>5.7467862366257026E-2</v>
+        <v>0.057467862366257026</v>
       </c>
       <c r="C68">
-        <v>6.6181399863976309E-2</v>
+        <v>0.06618139986397631</v>
       </c>
       <c r="D68">
         <v>-2.264852887255286</v>
@@ -13578,7 +13394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -13586,7 +13402,7 @@
         <v>0.11893782386645779</v>
       </c>
       <c r="C69">
-        <v>6.7780225742706507E-2</v>
+        <v>0.0677802257427065</v>
       </c>
       <c r="D69">
         <v>-2.2897521655781783</v>
@@ -13595,12 +13411,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" s="1">
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.36351821105471938</v>
+        <v>0.3635182110547194</v>
       </c>
       <c r="C70">
         <v>0.12545528578773418</v>
@@ -13612,7 +13428,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -13623,18 +13439,18 @@
         <v>-1.2806300815039162</v>
       </c>
       <c r="D71">
-        <v>-2.1794306208417309</v>
+        <v>-2.179430620841731</v>
       </c>
       <c r="E71">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" s="1">
         <v>72</v>
       </c>
       <c r="B72">
-        <v>36.324958199403859</v>
+        <v>36.32495819940386</v>
       </c>
       <c r="C72">
         <v>13.439024994660823</v>
@@ -13646,15 +13462,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="1">
         <v>73</v>
       </c>
       <c r="B73">
-        <v>-8.1050272432244004</v>
+        <v>-8.1050272432244</v>
       </c>
       <c r="C73">
-        <v>8.1579186232845444</v>
+        <v>8.157918623284544</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -13663,15 +13479,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="1">
         <v>74</v>
       </c>
       <c r="B74">
-        <v>-0.69878488184124432</v>
+        <v>-0.6987848818412443</v>
       </c>
       <c r="C74">
-        <v>0.61169587491404143</v>
+        <v>0.6116958749140414</v>
       </c>
       <c r="D74">
         <v>2.1744990594031326</v>
@@ -13680,15 +13496,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" s="1">
         <v>75</v>
       </c>
       <c r="B75">
-        <v>-8.4237419644543829E-3</v>
+        <v>-0.008423741964454383</v>
       </c>
       <c r="C75">
-        <v>9.9201305525052803E-3</v>
+        <v>0.00992013055250528</v>
       </c>
       <c r="D75">
         <v>2.3110599321178844</v>
@@ -13697,15 +13513,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" s="1">
         <v>76</v>
       </c>
       <c r="B76">
-        <v>-5.149914015161678E-2</v>
+        <v>-0.05149914015161678</v>
       </c>
       <c r="C76">
-        <v>2.4878791968422256E-2</v>
+        <v>0.024878791968422256</v>
       </c>
       <c r="D76">
         <v>2.3149143191448576</v>
@@ -13714,7 +13530,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -13725,18 +13541,18 @@
         <v>0.11553901308597711</v>
       </c>
       <c r="D77">
-        <v>2.3075960370034538</v>
+        <v>2.307596037003454</v>
       </c>
       <c r="E77">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.31210225974098371</v>
+        <v>0.3121022597409837</v>
       </c>
       <c r="C78">
         <v>-0.2838034674803156</v>
@@ -13748,7 +13564,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -13765,7 +13581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -13782,7 +13598,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -13793,38 +13609,38 @@
         <v>-1.0226438160730724</v>
       </c>
       <c r="D81">
-        <v>-2.5214649171723922</v>
+        <v>-2.521464917172392</v>
       </c>
       <c r="E81">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" s="1">
         <v>82</v>
       </c>
       <c r="B82">
-        <v>2.7593552264459541E-2</v>
+        <v>0.02759355226445954</v>
       </c>
       <c r="C82">
-        <v>1.5318409004001728E-2</v>
+        <v>0.015318409004001728</v>
       </c>
       <c r="D82">
-        <v>-2.3013085849266481</v>
+        <v>-2.301308584926648</v>
       </c>
       <c r="E82">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" s="1">
         <v>83</v>
       </c>
       <c r="B83">
-        <v>2.3970065807948637E-2</v>
+        <v>0.023970065807948637</v>
       </c>
       <c r="C83">
-        <v>1.8429598514005177E-3</v>
+        <v>0.0018429598514005177</v>
       </c>
       <c r="D83">
         <v>-2.2990019243390316</v>
@@ -13833,7 +13649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -13841,7 +13657,7 @@
         <v>0.42062419728097356</v>
       </c>
       <c r="C84">
-        <v>0.16577416846840279</v>
+        <v>0.1657741684684028</v>
       </c>
       <c r="D84">
         <v>-2.2869579375641442</v>
@@ -13850,15 +13666,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" s="1">
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.38768757979552471</v>
+        <v>0.3876875797955247</v>
       </c>
       <c r="C85">
-        <v>6.0026287918747423E-3</v>
+        <v>0.006002628791874742</v>
       </c>
       <c r="D85">
         <v>-2.1894374255591678</v>
@@ -13867,7 +13683,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -13875,16 +13691,16 @@
         <v>5.1407766698503785</v>
       </c>
       <c r="C86">
-        <v>2.6164386414582559</v>
+        <v>2.616438641458256</v>
       </c>
       <c r="D86">
-        <v>-1.9326039463788509</v>
+        <v>-1.932603946378851</v>
       </c>
       <c r="E86">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -13892,7 +13708,7 @@
         <v>-268.09267801825354</v>
       </c>
       <c r="C87">
-        <v>79.596251223618822</v>
+        <v>79.59625122361882</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -13901,15 +13717,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="1">
         <v>88</v>
       </c>
       <c r="B88">
-        <v>5.4832602762300482</v>
+        <v>5.483260276230048</v>
       </c>
       <c r="C88">
-        <v>-5.1585005055884006</v>
+        <v>-5.158500505588401</v>
       </c>
       <c r="D88">
         <v>3.258769992701902</v>
@@ -13918,7 +13734,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -13935,15 +13751,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" s="1">
         <v>90</v>
       </c>
       <c r="B90">
-        <v>-5.787207188300262E-2</v>
+        <v>-0.05787207188300262</v>
       </c>
       <c r="C90">
-        <v>5.7563233543598109E-2</v>
+        <v>0.05756323354359811</v>
       </c>
       <c r="D90">
         <v>2.2609738754204223</v>
@@ -13952,7 +13768,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -13960,7 +13776,7 @@
         <v>-0.29953887542783886</v>
       </c>
       <c r="C91">
-        <v>0.13803793665952729</v>
+        <v>0.1380379366595273</v>
       </c>
       <c r="D91">
         <v>2.2780346255484436</v>
@@ -13969,24 +13785,24 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="1">
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.53296663426715774</v>
+        <v>0.5329666342671577</v>
       </c>
       <c r="C92">
-        <v>-0.36018365835967092</v>
+        <v>-0.3601836583596709</v>
       </c>
       <c r="D92">
-        <v>2.2263529105400992</v>
+        <v>2.226352910540099</v>
       </c>
       <c r="E92">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -14003,12 +13819,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="1">
         <v>94</v>
       </c>
       <c r="B94">
-        <v>-70.623704377863419</v>
+        <v>-70.62370437786342</v>
       </c>
       <c r="C94">
         <v>21.850630037721185</v>
@@ -14020,15 +13836,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95" s="1">
         <v>95</v>
       </c>
       <c r="B95">
-        <v>5.1252848980931098</v>
+        <v>5.12528489809311</v>
       </c>
       <c r="C95">
-        <v>6.0850107619532432</v>
+        <v>6.085010761953243</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -14037,7 +13853,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -14048,30 +13864,30 @@
         <v>1.1072957076758032</v>
       </c>
       <c r="D96">
-        <v>-2.0137027518374611</v>
+        <v>-2.013702751837461</v>
       </c>
       <c r="E96">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5">
       <c r="A97" s="1">
         <v>97</v>
       </c>
       <c r="B97">
-        <v>4.5876253976707401E-2</v>
+        <v>0.0458762539767074</v>
       </c>
       <c r="C97">
-        <v>4.8024912294532811E-2</v>
+        <v>0.04802491229453281</v>
       </c>
       <c r="D97">
-        <v>-2.2764238532229801</v>
+        <v>-2.27642385322298</v>
       </c>
       <c r="E97">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -14082,21 +13898,21 @@
         <v>0.11166056242595214</v>
       </c>
       <c r="D98">
-        <v>-2.2921162790253748</v>
+        <v>-2.292116279025375</v>
       </c>
       <c r="E98">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>99</v>
       </c>
       <c r="B99">
-        <v>-0.61806610187686017</v>
+        <v>-0.6180661018768602</v>
       </c>
       <c r="C99">
-        <v>-0.36931751885133268</v>
+        <v>-0.3693175188513327</v>
       </c>
       <c r="D99">
         <v>-2.2538968650711872</v>
@@ -14105,7 +13921,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -14113,7 +13929,7 @@
         <v>0.21760816152301887</v>
       </c>
       <c r="C100">
-        <v>0.30596358309001459</v>
+        <v>0.3059635830900146</v>
       </c>
       <c r="D100">
         <v>-2.298697434780014</v>
@@ -14122,15 +13938,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>101</v>
       </c>
       <c r="B101">
-        <v>1.1733188153048829E-2</v>
+        <v>0.011733188153048829</v>
       </c>
       <c r="C101">
-        <v>0.13767827731843771</v>
+        <v>0.1376782773184377</v>
       </c>
       <c r="D101">
         <v>-2.4404614012078722</v>

--- a/pkg/pchip/pchip.xlsx
+++ b/pkg/pchip/pchip.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -290,8 +290,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,13 +322,13 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -776,6 +776,51 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-0.95257652515033953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.9721628316176568E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11006017260018919</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2169978547505948E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9666122185211411</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.4190122315457687</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-42.88622348418064</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4734965615388882</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.1604059710983666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.3221598282546134E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.12141641499802332</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.3486919046182919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.8858801715725413</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>195.84101609138054</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.8412012441432157</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58004060861935114</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4.9458654483284466E-2</c:v>
@@ -1619,6 +1664,51 @@
                 <c:pt idx="8">
                   <c:v>-0.83703522909475558</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.1820627891780764E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1040945210043958E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1066724412464658E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38420004781685019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6287797035635911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.886263722673629</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.1869869272616116</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.15838476088340636</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9814104216767093E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6586945464218064E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55158922186881931</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9271379619173337</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.660935078952093</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.5976656885968472</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53491990008345236</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>3.991467243134994E-2</c:v>
                 </c:pt>
@@ -2461,6 +2551,51 @@
                 <c:pt idx="8">
                   <c:v>-2.4326987808884675</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.2533544909463079</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.272143462609522</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2798755843090444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.2507073883601865</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.0115890125462661</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.662593514667341</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2176725752165831</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2635419276993574</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.267643931993252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.2377591695935513</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9092491945782395</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.0947638753768745</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.1202147614206064</c:v>
+                </c:pt>
                 <c:pt idx="24">
                   <c:v>-2.251345267572697</c:v>
                 </c:pt>
@@ -3302,6 +3437,51 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>25</c:v>
@@ -12229,24 +12409,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col max="1" min="1" style="1" width="9.140625"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1">
-        <v>-0.000028714280560717074</v>
+        <v>-2.8714280560717074E-5</v>
       </c>
       <c r="C1">
-        <v>0.006272111755867266</v>
+        <v>6.2721117558672658E-3</v>
       </c>
       <c r="D1">
         <v>2.2631207254126786</v>
@@ -12255,83 +12435,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>-0.029925708589007175</v>
+        <v>-2.9925708589007175E-2</v>
       </c>
       <c r="C2">
-        <v>0.019447140301766065</v>
+        <v>1.9447140301766065E-2</v>
       </c>
       <c r="D2">
-        <v>2.26864007706748</v>
+        <v>2.2686400770674799</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.05897131573684258</v>
+        <v>5.8971315736842583E-2</v>
       </c>
       <c r="C3">
-        <v>-0.032904246387262234</v>
+        <v>-3.2904246387262234E-2</v>
       </c>
       <c r="D3">
-        <v>2.268362401602513</v>
+        <v>2.2683624016025128</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.09904113899748276</v>
+        <v>-9.9041138997482764E-2</v>
       </c>
       <c r="C4">
-        <v>0.06279521452070125</v>
+        <v>6.2795214520701248E-2</v>
       </c>
       <c r="D4">
-        <v>2.273786723945353</v>
+        <v>2.2737867239453529</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.037294867449585184</v>
+        <v>3.7294867449585184E-2</v>
       </c>
       <c r="C5">
-        <v>-0.04012219955459734</v>
+        <v>-4.0122199554597338E-2</v>
       </c>
       <c r="D5">
-        <v>2.271772830121961</v>
+        <v>2.2717728301219609</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.5999684611706996</v>
+        <v>-0.59996846117069957</v>
       </c>
       <c r="C6">
-        <v>0.2589553591757625</v>
+        <v>0.25895535917576251</v>
       </c>
       <c r="D6">
         <v>2.2581671202582063</v>
@@ -12340,29 +12520,29 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>-7.797909242661517</v>
+        <v>-7.7979092426615173</v>
       </c>
       <c r="C7">
         <v>3.6303085793178687</v>
       </c>
       <c r="D7">
-        <v>2.133880884956983</v>
+        <v>2.1338808849569828</v>
       </c>
       <c r="E7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>19.76257289007222</v>
+        <v>19.762572890072221</v>
       </c>
       <c r="C8">
         <v>14.448514151355933</v>
@@ -12374,15 +12554,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>-0.9525765251503395</v>
+        <v>-0.95257652515033953</v>
       </c>
       <c r="C9">
-        <v>-0.8370352290947556</v>
+        <v>-0.83703522909475558</v>
       </c>
       <c r="D9">
         <v>-2.4326987808884675</v>
@@ -12391,24 +12571,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
       <c r="B10">
-        <v>-0.04972162831617657</v>
+        <v>-4.9721628316176568E-2</v>
       </c>
       <c r="C10">
-        <v>-0.011820627891780764</v>
+        <v>-1.1820627891780764E-2</v>
       </c>
       <c r="D10">
-        <v>-2.253354490946308</v>
+        <v>-2.2533544909463079</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -12416,7 +12596,7 @@
         <v>0.11006017260018919</v>
       </c>
       <c r="C11">
-        <v>0.08104094521004396</v>
+        <v>8.1040945210043958E-2</v>
       </c>
       <c r="D11">
         <v>-2.272143462609522</v>
@@ -12425,15 +12605,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.08216997854750595</v>
+        <v>8.2169978547505948E-2</v>
       </c>
       <c r="C12">
-        <v>0.021066724412464658</v>
+        <v>2.1066724412464658E-2</v>
       </c>
       <c r="D12">
         <v>-2.2798755843090444</v>
@@ -12442,7 +12622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -12450,7 +12630,7 @@
         <v>0.9666122185211411</v>
       </c>
       <c r="C13">
-        <v>0.3842000478168502</v>
+        <v>0.38420004781685019</v>
       </c>
       <c r="D13">
         <v>-2.2507073883601865</v>
@@ -12459,24 +12639,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5.419012231545769</v>
+        <v>5.4190122315457687</v>
       </c>
       <c r="C14">
-        <v>2.628779703563591</v>
+        <v>2.6287797035635911</v>
       </c>
       <c r="D14">
-        <v>-2.011589012546266</v>
+        <v>-2.0115890125462661</v>
       </c>
       <c r="E14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -12484,7 +12664,7 @@
         <v>-42.88622348418064</v>
       </c>
       <c r="C15">
-        <v>23.88626372267363</v>
+        <v>23.886263722673629</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -12493,12 +12673,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.473496561538888</v>
+        <v>2.4734965615388882</v>
       </c>
       <c r="C16">
         <v>-2.1869869272616116</v>
@@ -12510,7 +12690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -12521,21 +12701,21 @@
         <v>0.15838476088340636</v>
       </c>
       <c r="D17">
-        <v>2.217672575216583</v>
+        <v>2.2176725752165831</v>
       </c>
       <c r="E17">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.053221598282546134</v>
+        <v>-5.3221598282546134E-2</v>
       </c>
       <c r="C18">
-        <v>0.03981410421676709</v>
+        <v>3.9814104216767093E-2</v>
       </c>
       <c r="D18">
         <v>2.2635419276993574</v>
@@ -12544,7 +12724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -12552,7 +12732,7 @@
         <v>-0.12141641499802332</v>
       </c>
       <c r="C19">
-        <v>0.046586945464218064</v>
+        <v>4.6586945464218064E-2</v>
       </c>
       <c r="D19">
         <v>2.267643931993252</v>
@@ -12561,15 +12741,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-1.348691904618292</v>
+        <v>-1.3486919046182919</v>
       </c>
       <c r="C20">
-        <v>0.5515892218688193</v>
+        <v>0.55158922186881931</v>
       </c>
       <c r="D20">
         <v>2.2377591695935513</v>
@@ -12578,7 +12758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -12592,10 +12772,10 @@
         <v>1.9092491945782395</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -12603,24 +12783,24 @@
         <v>195.84101609138054</v>
       </c>
       <c r="C22">
-        <v>64.6609350789521</v>
+        <v>64.660935078952093</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23">
-        <v>-4.841201244143216</v>
+        <v>-4.8412012441432157</v>
       </c>
       <c r="C23">
-        <v>-4.597665688596847</v>
+        <v>-4.5976656885968472</v>
       </c>
       <c r="D23">
         <v>-3.0947638753768745</v>
@@ -12629,15 +12809,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.5800406086193511</v>
+        <v>0.58004060861935114</v>
       </c>
       <c r="C24">
-        <v>0.5349199000834524</v>
+        <v>0.53491990008345236</v>
       </c>
       <c r="D24">
         <v>-2.1202147614206064</v>
@@ -12646,15 +12826,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.049458654483284466</v>
+        <v>4.9458654483284466E-2</v>
       </c>
       <c r="C25">
-        <v>0.03991467243134994</v>
+        <v>3.991467243134994E-2</v>
       </c>
       <c r="D25">
         <v>-2.251345267572697</v>
@@ -12663,15 +12843,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.094350623378127</v>
+        <v>9.4350623378126997E-2</v>
       </c>
       <c r="C26">
-        <v>0.037966504442996374</v>
+        <v>3.7966504442996374E-2</v>
       </c>
       <c r="D26">
         <v>-2.2576111205170237</v>
@@ -12680,41 +12860,41 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.6236513349891029</v>
+        <v>0.62365133498910286</v>
       </c>
       <c r="C27">
-        <v>0.237145658636407</v>
+        <v>0.23714565863640699</v>
       </c>
       <c r="D27">
-        <v>-2.235651497211247</v>
+        <v>-2.2356514972112471</v>
       </c>
       <c r="E27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-5.734469890128181</v>
+        <v>-5.7344698901281808</v>
       </c>
       <c r="C28">
         <v>-3.2244456220998483</v>
       </c>
       <c r="D28">
-        <v>-2.068594887221238</v>
+        <v>-2.0685948872212379</v>
       </c>
       <c r="E28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -12722,7 +12902,7 @@
         <v>441.5132143298286</v>
       </c>
       <c r="C29">
-        <v>88.45326565011979</v>
+        <v>88.453265650119789</v>
       </c>
       <c r="D29">
         <v>-3.3326573665993795</v>
@@ -12731,7 +12911,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -12739,7 +12919,7 @@
         <v>-3.394882351775264</v>
       </c>
       <c r="C30">
-        <v>4.688919782588838</v>
+        <v>4.6889197825888376</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -12748,7 +12928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -12765,15 +12945,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-0.0326425863286365</v>
+        <v>-3.2642586328636501E-2</v>
       </c>
       <c r="C32">
-        <v>0.04101702606409841</v>
+        <v>4.1017026064098412E-2</v>
       </c>
       <c r="D32">
         <v>2.2547565086294084</v>
@@ -12782,15 +12962,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.0024508484882332583</v>
+        <v>2.4508484882332583E-3</v>
       </c>
       <c r="C33">
-        <v>0.011233491842577801</v>
+        <v>1.1233491842577801E-2</v>
       </c>
       <c r="D33">
         <v>2.2718875258638738</v>
@@ -12799,7 +12979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -12816,7 +12996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -12833,7 +13013,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -12850,15 +13030,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
       <c r="B37">
-        <v>4.747641433000651</v>
+        <v>4.7476414330006511</v>
       </c>
       <c r="C37">
-        <v>5.80932951248324</v>
+        <v>5.8093295124832398</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -12867,7 +13047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -12884,32 +13064,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-0.019459812421709553</v>
+        <v>-1.9459812421709553E-2</v>
       </c>
       <c r="C39">
-        <v>-0.01288269920320961</v>
+        <v>-1.288269920320961E-2</v>
       </c>
       <c r="D39">
-        <v>-2.306873124301727</v>
+        <v>-2.3068731243017271</v>
       </c>
       <c r="E39">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40">
-        <v>-0.030249114617154453</v>
+        <v>-3.0249114617154453E-2</v>
       </c>
       <c r="C40">
-        <v>-0.009091186794711758</v>
+        <v>-9.0911867947117576E-3</v>
       </c>
       <c r="D40">
         <v>-2.3066833111624705</v>
@@ -12918,7 +13098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -12926,33 +13106,33 @@
         <v>0.26310648316264723</v>
       </c>
       <c r="C41">
-        <v>0.1305481965848815</v>
+        <v>0.13054819658488151</v>
       </c>
       <c r="D41">
-        <v>-2.315836341474912</v>
+        <v>-2.3158363414749119</v>
       </c>
       <c r="E41">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42">
-        <v>-0.8427430110638578</v>
+        <v>-0.84274301106385785</v>
       </c>
       <c r="C42">
-        <v>-0.4663410473436136</v>
+        <v>-0.46634104734361359</v>
       </c>
       <c r="D42">
-        <v>-2.281984779597103</v>
+        <v>-2.2819847795971029</v>
       </c>
       <c r="E42">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -12960,7 +13140,7 @@
         <v>16.604797979132147</v>
       </c>
       <c r="C43">
-        <v>6.969229723720124</v>
+        <v>6.9692297237201242</v>
       </c>
       <c r="D43">
         <v>-2.3690434474642275</v>
@@ -12969,7 +13149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -12977,7 +13157,7 @@
         <v>-7.4148514337035225</v>
       </c>
       <c r="C44">
-        <v>7.723858107325926</v>
+        <v>7.7238581073259258</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -12986,7 +13166,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -12994,24 +13174,24 @@
         <v>-1.134572895329752</v>
       </c>
       <c r="C45">
-        <v>0.9224633248447245</v>
+        <v>0.92246332484472449</v>
       </c>
       <c r="D45">
-        <v>2.175512225746261</v>
+        <v>2.1755122257462611</v>
       </c>
       <c r="E45">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.0681587338791654</v>
+        <v>6.8158733879165406E-2</v>
       </c>
       <c r="C46">
-        <v>-0.06633331800650492</v>
+        <v>-6.6333318006504924E-2</v>
       </c>
       <c r="D46">
         <v>2.3466383939583846</v>
@@ -13020,15 +13200,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.03838689312147046</v>
+        <v>3.8386893121470457E-2</v>
       </c>
       <c r="C47">
-        <v>-0.02432606836886159</v>
+        <v>-2.432606836886159E-2</v>
       </c>
       <c r="D47">
         <v>2.327358595709986</v>
@@ -13037,7 +13217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -13045,7 +13225,7 @@
         <v>-0.17821141920041075</v>
       </c>
       <c r="C48">
-        <v>0.0851923794905218</v>
+        <v>8.5192379490521802E-2</v>
       </c>
       <c r="D48">
         <v>2.3277461517164713</v>
@@ -13054,12 +13234,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49">
-        <v>-0.5023903672758208</v>
+        <v>-0.50239036727582076</v>
       </c>
       <c r="C49">
         <v>0.1560178010426061</v>
@@ -13071,12 +13251,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50">
-        <v>-7.904026658636773</v>
+        <v>-7.9040266586367727</v>
       </c>
       <c r="C50">
         <v>3.6536271486348486</v>
@@ -13088,7 +13268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -13105,15 +13285,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="B52">
-        <v>-0.00907087949096099</v>
+        <v>-9.0708794909609893E-3</v>
       </c>
       <c r="C52">
-        <v>-0.0744129247300313</v>
+        <v>-7.4412924730031305E-2</v>
       </c>
       <c r="D52">
         <v>-2.4205740851542044</v>
@@ -13122,7 +13302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -13139,15 +13319,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
       <c r="B54">
-        <v>-0.029586000205196368</v>
+        <v>-2.9586000205196368E-2</v>
       </c>
       <c r="C54">
-        <v>-0.028950056632779775</v>
+        <v>-2.8950056632779775E-2</v>
       </c>
       <c r="D54">
         <v>-2.3285677170224433</v>
@@ -13156,7 +13336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -13164,7 +13344,7 @@
         <v>0.21445520462766446</v>
       </c>
       <c r="C55">
-        <v>0.08903826656158229</v>
+        <v>8.9038266561582285E-2</v>
       </c>
       <c r="D55">
         <v>-2.3200957074415385</v>
@@ -13173,7 +13353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -13181,7 +13361,7 @@
         <v>1.1744277788655084</v>
       </c>
       <c r="C56">
-        <v>0.4346693477256425</v>
+        <v>0.43466934772564247</v>
       </c>
       <c r="D56">
         <v>-2.2772238183644533</v>
@@ -13190,12 +13370,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
       <c r="B57">
-        <v>4.483968428234491</v>
+        <v>4.4839684282344914</v>
       </c>
       <c r="C57">
         <v>2.1910643387984834</v>
@@ -13207,12 +13387,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
       <c r="B58">
-        <v>-50.57441727240231</v>
+        <v>-50.574417272402307</v>
       </c>
       <c r="C58">
         <v>26.678173468908234</v>
@@ -13224,7 +13404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -13232,41 +13412,41 @@
         <v>2.6520600393532496</v>
       </c>
       <c r="C59">
-        <v>-2.30292509567904</v>
+        <v>-2.3029250956790399</v>
       </c>
       <c r="D59">
-        <v>2.83834522597819</v>
+        <v>2.8383452259781898</v>
       </c>
       <c r="E59">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.039424159525865435</v>
+        <v>3.9424159525865435E-2</v>
       </c>
       <c r="C60">
-        <v>-0.051117569115640325</v>
+        <v>-5.1117569115640325E-2</v>
       </c>
       <c r="D60">
-        <v>2.323651155825393</v>
+        <v>2.3236511558253929</v>
       </c>
       <c r="E60">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.00021436469955748595</v>
+        <v>2.1436469955748595E-4</v>
       </c>
       <c r="C61">
-        <v>-0.016882117011499297</v>
+        <v>-1.6882117011499297E-2</v>
       </c>
       <c r="D61">
         <v>2.3015581509131016</v>
@@ -13275,7 +13455,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -13283,7 +13463,7 @@
         <v>-0.1647240374262568</v>
       </c>
       <c r="C62">
-        <v>0.05573687787603715</v>
+        <v>5.573687787603715E-2</v>
       </c>
       <c r="D62">
         <v>2.286963374375901</v>
@@ -13292,7 +13472,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -13309,7 +13489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -13317,7 +13497,7 @@
         <v>6.392505415620807</v>
       </c>
       <c r="C64">
-        <v>-4.034578929304229</v>
+        <v>-4.0345789293042289</v>
       </c>
       <c r="D64">
         <v>1.9554422305376111</v>
@@ -13326,7 +13506,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -13334,24 +13514,24 @@
         <v>-2095.6132901838496</v>
       </c>
       <c r="C65">
-        <v>271.4274125074206</v>
+        <v>271.42741250742063</v>
       </c>
       <c r="D65">
-        <v>3.634338429187588</v>
+        <v>3.6343384291875882</v>
       </c>
       <c r="E65">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
       <c r="B66">
-        <v>4.27281282766907</v>
+        <v>4.2728128276690702</v>
       </c>
       <c r="C66">
-        <v>5.419887234051076</v>
+        <v>5.4198872340510764</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -13360,7 +13540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -13377,15 +13557,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.057467862366257026</v>
+        <v>5.7467862366257026E-2</v>
       </c>
       <c r="C68">
-        <v>0.06618139986397631</v>
+        <v>6.6181399863976309E-2</v>
       </c>
       <c r="D68">
         <v>-2.264852887255286</v>
@@ -13394,7 +13574,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -13402,7 +13582,7 @@
         <v>0.11893782386645779</v>
       </c>
       <c r="C69">
-        <v>0.0677802257427065</v>
+        <v>6.7780225742706507E-2</v>
       </c>
       <c r="D69">
         <v>-2.2897521655781783</v>
@@ -13411,12 +13591,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.3635182110547194</v>
+        <v>0.36351821105471938</v>
       </c>
       <c r="C70">
         <v>0.12545528578773418</v>
@@ -13428,7 +13608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -13439,18 +13619,18 @@
         <v>-1.2806300815039162</v>
       </c>
       <c r="D71">
-        <v>-2.179430620841731</v>
+        <v>-2.1794306208417309</v>
       </c>
       <c r="E71">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
       <c r="B72">
-        <v>36.32495819940386</v>
+        <v>36.324958199403859</v>
       </c>
       <c r="C72">
         <v>13.439024994660823</v>
@@ -13462,15 +13642,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
       <c r="B73">
-        <v>-8.1050272432244</v>
+        <v>-8.1050272432244004</v>
       </c>
       <c r="C73">
-        <v>8.157918623284544</v>
+        <v>8.1579186232845444</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -13479,15 +13659,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
       <c r="B74">
-        <v>-0.6987848818412443</v>
+        <v>-0.69878488184124432</v>
       </c>
       <c r="C74">
-        <v>0.6116958749140414</v>
+        <v>0.61169587491404143</v>
       </c>
       <c r="D74">
         <v>2.1744990594031326</v>
@@ -13496,15 +13676,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
       <c r="B75">
-        <v>-0.008423741964454383</v>
+        <v>-8.4237419644543829E-3</v>
       </c>
       <c r="C75">
-        <v>0.00992013055250528</v>
+        <v>9.9201305525052803E-3</v>
       </c>
       <c r="D75">
         <v>2.3110599321178844</v>
@@ -13513,15 +13693,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
       <c r="B76">
-        <v>-0.05149914015161678</v>
+        <v>-5.149914015161678E-2</v>
       </c>
       <c r="C76">
-        <v>0.024878791968422256</v>
+        <v>2.4878791968422256E-2</v>
       </c>
       <c r="D76">
         <v>2.3149143191448576</v>
@@ -13530,7 +13710,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -13541,18 +13721,18 @@
         <v>0.11553901308597711</v>
       </c>
       <c r="D77">
-        <v>2.307596037003454</v>
+        <v>2.3075960370034538</v>
       </c>
       <c r="E77">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.3121022597409837</v>
+        <v>0.31210225974098371</v>
       </c>
       <c r="C78">
         <v>-0.2838034674803156</v>
@@ -13564,7 +13744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -13581,7 +13761,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -13598,7 +13778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -13609,38 +13789,38 @@
         <v>-1.0226438160730724</v>
       </c>
       <c r="D81">
-        <v>-2.521464917172392</v>
+        <v>-2.5214649171723922</v>
       </c>
       <c r="E81">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.02759355226445954</v>
+        <v>2.7593552264459541E-2</v>
       </c>
       <c r="C82">
-        <v>0.015318409004001728</v>
+        <v>1.5318409004001728E-2</v>
       </c>
       <c r="D82">
-        <v>-2.301308584926648</v>
+        <v>-2.3013085849266481</v>
       </c>
       <c r="E82">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.023970065807948637</v>
+        <v>2.3970065807948637E-2</v>
       </c>
       <c r="C83">
-        <v>0.0018429598514005177</v>
+        <v>1.8429598514005177E-3</v>
       </c>
       <c r="D83">
         <v>-2.2990019243390316</v>
@@ -13649,7 +13829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -13657,7 +13837,7 @@
         <v>0.42062419728097356</v>
       </c>
       <c r="C84">
-        <v>0.1657741684684028</v>
+        <v>0.16577416846840279</v>
       </c>
       <c r="D84">
         <v>-2.2869579375641442</v>
@@ -13666,15 +13846,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.3876875797955247</v>
+        <v>0.38768757979552471</v>
       </c>
       <c r="C85">
-        <v>0.006002628791874742</v>
+        <v>6.0026287918747423E-3</v>
       </c>
       <c r="D85">
         <v>-2.1894374255591678</v>
@@ -13683,7 +13863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -13691,16 +13871,16 @@
         <v>5.1407766698503785</v>
       </c>
       <c r="C86">
-        <v>2.616438641458256</v>
+        <v>2.6164386414582559</v>
       </c>
       <c r="D86">
-        <v>-1.932603946378851</v>
+        <v>-1.9326039463788509</v>
       </c>
       <c r="E86">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -13708,7 +13888,7 @@
         <v>-268.09267801825354</v>
       </c>
       <c r="C87">
-        <v>79.59625122361882</v>
+        <v>79.596251223618822</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -13717,15 +13897,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
       <c r="B88">
-        <v>5.483260276230048</v>
+        <v>5.4832602762300482</v>
       </c>
       <c r="C88">
-        <v>-5.158500505588401</v>
+        <v>-5.1585005055884006</v>
       </c>
       <c r="D88">
         <v>3.258769992701902</v>
@@ -13734,7 +13914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -13751,15 +13931,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
       <c r="B90">
-        <v>-0.05787207188300262</v>
+        <v>-5.787207188300262E-2</v>
       </c>
       <c r="C90">
-        <v>0.05756323354359811</v>
+        <v>5.7563233543598109E-2</v>
       </c>
       <c r="D90">
         <v>2.2609738754204223</v>
@@ -13768,7 +13948,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -13776,7 +13956,7 @@
         <v>-0.29953887542783886</v>
       </c>
       <c r="C91">
-        <v>0.1380379366595273</v>
+        <v>0.13803793665952729</v>
       </c>
       <c r="D91">
         <v>2.2780346255484436</v>
@@ -13785,24 +13965,24 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.5329666342671577</v>
+        <v>0.53296663426715774</v>
       </c>
       <c r="C92">
-        <v>-0.3601836583596709</v>
+        <v>-0.36018365835967092</v>
       </c>
       <c r="D92">
-        <v>2.226352910540099</v>
+        <v>2.2263529105400992</v>
       </c>
       <c r="E92">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -13819,12 +13999,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
       <c r="B94">
-        <v>-70.62370437786342</v>
+        <v>-70.623704377863419</v>
       </c>
       <c r="C94">
         <v>21.850630037721185</v>
@@ -13836,15 +14016,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
       <c r="B95">
-        <v>5.12528489809311</v>
+        <v>5.1252848980931098</v>
       </c>
       <c r="C95">
-        <v>6.085010761953243</v>
+        <v>6.0850107619532432</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -13853,7 +14033,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -13864,30 +14044,30 @@
         <v>1.1072957076758032</v>
       </c>
       <c r="D96">
-        <v>-2.013702751837461</v>
+        <v>-2.0137027518374611</v>
       </c>
       <c r="E96">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.0458762539767074</v>
+        <v>4.5876253976707401E-2</v>
       </c>
       <c r="C97">
-        <v>0.04802491229453281</v>
+        <v>4.8024912294532811E-2</v>
       </c>
       <c r="D97">
-        <v>-2.27642385322298</v>
+        <v>-2.2764238532229801</v>
       </c>
       <c r="E97">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -13898,21 +14078,21 @@
         <v>0.11166056242595214</v>
       </c>
       <c r="D98">
-        <v>-2.292116279025375</v>
+        <v>-2.2921162790253748</v>
       </c>
       <c r="E98">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
       <c r="B99">
-        <v>-0.6180661018768602</v>
+        <v>-0.61806610187686017</v>
       </c>
       <c r="C99">
-        <v>-0.3693175188513327</v>
+        <v>-0.36931751885133268</v>
       </c>
       <c r="D99">
         <v>-2.2538968650711872</v>
@@ -13921,7 +14101,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -13929,7 +14109,7 @@
         <v>0.21760816152301887</v>
       </c>
       <c r="C100">
-        <v>0.3059635830900146</v>
+        <v>0.30596358309001459</v>
       </c>
       <c r="D100">
         <v>-2.298697434780014</v>
@@ -13938,15 +14118,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.011733188153048829</v>
+        <v>1.1733188153048829E-2</v>
       </c>
       <c r="C101">
-        <v>0.1376782773184377</v>
+        <v>0.13767827731843771</v>
       </c>
       <c r="D101">
         <v>-2.4404614012078722</v>
